--- a/EXL.xlsx
+++ b/EXL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C81871F6-C3C0-4113-B7A0-867055F28FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{959A87CB-E532-4401-B962-F3A0F74690BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
+    <t>g</t>
   </si>
   <si>
     <t>c</t>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>RAMA</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>MANASA</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,7 +496,18 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="D4" s="2"/>
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="3"/>
